--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.09582266666666</v>
+        <v>49.07461933333334</v>
       </c>
       <c r="H2">
-        <v>132.287468</v>
+        <v>147.223858</v>
       </c>
       <c r="I2">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="J2">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6847623333333331</v>
+        <v>0.1713566666666667</v>
       </c>
       <c r="N2">
-        <v>2.054287</v>
+        <v>0.51407</v>
       </c>
       <c r="O2">
-        <v>0.04097600788991113</v>
+        <v>0.01023284555714517</v>
       </c>
       <c r="P2">
-        <v>0.04097600788991113</v>
+        <v>0.01023284555714517</v>
       </c>
       <c r="Q2">
-        <v>30.19515841947954</v>
+        <v>8.409263186895558</v>
       </c>
       <c r="R2">
-        <v>271.7564257753159</v>
+        <v>75.68336868206001</v>
       </c>
       <c r="S2">
-        <v>0.007897996047540847</v>
+        <v>0.002131012285868655</v>
       </c>
       <c r="T2">
-        <v>0.007897996047540847</v>
+        <v>0.002131012285868654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.09582266666666</v>
+        <v>49.07461933333334</v>
       </c>
       <c r="H3">
-        <v>132.287468</v>
+        <v>147.223858</v>
       </c>
       <c r="I3">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="J3">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.781543666666667</v>
+        <v>0.6847623333333334</v>
       </c>
       <c r="N3">
-        <v>5.344631000000001</v>
+        <v>2.054287</v>
       </c>
       <c r="O3">
-        <v>0.1066071303691566</v>
+        <v>0.04089171046949069</v>
       </c>
       <c r="P3">
-        <v>0.1066071303691566</v>
+        <v>0.04089171046949069</v>
       </c>
       <c r="Q3">
-        <v>78.55863359825645</v>
+        <v>33.60445084213845</v>
       </c>
       <c r="R3">
-        <v>707.027702384308</v>
+        <v>302.440057579246</v>
       </c>
       <c r="S3">
-        <v>0.02054818752859961</v>
+        <v>0.008515787413582316</v>
       </c>
       <c r="T3">
-        <v>0.0205481875285996</v>
+        <v>0.008515787413582313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.09582266666666</v>
+        <v>49.07461933333334</v>
       </c>
       <c r="H4">
-        <v>132.287468</v>
+        <v>147.223858</v>
       </c>
       <c r="I4">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="J4">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.24499333333333</v>
+        <v>0.8339630000000001</v>
       </c>
       <c r="N4">
-        <v>42.73498</v>
+        <v>2.501889</v>
       </c>
       <c r="O4">
-        <v>0.8524168617409322</v>
+        <v>0.04980147399793875</v>
       </c>
       <c r="P4">
-        <v>0.8524168617409322</v>
+        <v>0.04980147399793875</v>
       </c>
       <c r="Q4">
-        <v>628.1446999145155</v>
+        <v>40.92641676308467</v>
       </c>
       <c r="R4">
-        <v>5653.30229923064</v>
+        <v>368.3377508677621</v>
       </c>
       <c r="S4">
-        <v>0.1643006566909771</v>
+        <v>0.01037126499675072</v>
       </c>
       <c r="T4">
-        <v>0.1643006566909771</v>
+        <v>0.01037126499675072</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>111.3149186666667</v>
+        <v>49.07461933333334</v>
       </c>
       <c r="H5">
-        <v>333.944756</v>
+        <v>147.223858</v>
       </c>
       <c r="I5">
-        <v>0.4865676055026886</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="J5">
-        <v>0.4865676055026886</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6847623333333331</v>
+        <v>15.05566733333333</v>
       </c>
       <c r="N5">
-        <v>2.054287</v>
+        <v>45.167002</v>
       </c>
       <c r="O5">
-        <v>0.04097600788991113</v>
+        <v>0.8990739699754254</v>
       </c>
       <c r="P5">
-        <v>0.04097600788991113</v>
+        <v>0.8990739699754254</v>
       </c>
       <c r="Q5">
-        <v>76.22426344099686</v>
+        <v>738.8511431926352</v>
       </c>
       <c r="R5">
-        <v>686.0183709689718</v>
+        <v>6649.660288733716</v>
       </c>
       <c r="S5">
-        <v>0.01993759804205333</v>
+        <v>0.1872341046508337</v>
       </c>
       <c r="T5">
-        <v>0.01993759804205333</v>
+        <v>0.1872341046508337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>333.944756</v>
       </c>
       <c r="I6">
-        <v>0.4865676055026886</v>
+        <v>0.4723739808466805</v>
       </c>
       <c r="J6">
-        <v>0.4865676055026886</v>
+        <v>0.4723739808466804</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.781543666666667</v>
+        <v>0.1713566666666667</v>
       </c>
       <c r="N6">
-        <v>5.344631000000001</v>
+        <v>0.51407</v>
       </c>
       <c r="O6">
-        <v>0.1066071303691566</v>
+        <v>0.01023284555714517</v>
       </c>
       <c r="P6">
-        <v>0.1066071303691566</v>
+        <v>0.01023284555714517</v>
       </c>
       <c r="Q6">
-        <v>198.3123883561151</v>
+        <v>19.07455341299111</v>
       </c>
       <c r="R6">
-        <v>1784.811495205036</v>
+        <v>171.67098071692</v>
       </c>
       <c r="S6">
-        <v>0.05187157615323349</v>
+        <v>0.004833729991217932</v>
       </c>
       <c r="T6">
-        <v>0.05187157615323348</v>
+        <v>0.004833729991217931</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>333.944756</v>
       </c>
       <c r="I7">
-        <v>0.4865676055026886</v>
+        <v>0.4723739808466805</v>
       </c>
       <c r="J7">
-        <v>0.4865676055026886</v>
+        <v>0.4723739808466804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.24499333333333</v>
+        <v>0.6847623333333334</v>
       </c>
       <c r="N7">
-        <v>42.73498</v>
+        <v>2.054287</v>
       </c>
       <c r="O7">
-        <v>0.8524168617409322</v>
+        <v>0.04089171046949069</v>
       </c>
       <c r="P7">
-        <v>0.8524168617409322</v>
+        <v>0.04089171046949069</v>
       </c>
       <c r="Q7">
-        <v>1585.680274307209</v>
+        <v>76.22426344099688</v>
       </c>
       <c r="R7">
-        <v>14271.12246876488</v>
+        <v>686.0183709689719</v>
       </c>
       <c r="S7">
-        <v>0.4147584313074018</v>
+        <v>0.0193161800581032</v>
       </c>
       <c r="T7">
-        <v>0.4147584313074018</v>
+        <v>0.01931618005810319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.02061066666666</v>
+        <v>111.3149186666667</v>
       </c>
       <c r="H8">
-        <v>99.061832</v>
+        <v>333.944756</v>
       </c>
       <c r="I8">
-        <v>0.1443360841185049</v>
+        <v>0.4723739808466805</v>
       </c>
       <c r="J8">
-        <v>0.144336084118505</v>
+        <v>0.4723739808466804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6847623333333331</v>
+        <v>0.8339630000000001</v>
       </c>
       <c r="N8">
-        <v>2.054287</v>
+        <v>2.501889</v>
       </c>
       <c r="O8">
-        <v>0.04097600788991113</v>
+        <v>0.04980147399793875</v>
       </c>
       <c r="P8">
-        <v>0.04097600788991113</v>
+        <v>0.04980147399793875</v>
       </c>
       <c r="Q8">
-        <v>22.61127040819821</v>
+        <v>92.83252351600933</v>
       </c>
       <c r="R8">
-        <v>203.5014336737839</v>
+        <v>835.492711644084</v>
       </c>
       <c r="S8">
-        <v>0.005914316521638734</v>
+        <v>0.02352492052443877</v>
       </c>
       <c r="T8">
-        <v>0.005914316521638735</v>
+        <v>0.02352492052443877</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.02061066666666</v>
+        <v>111.3149186666667</v>
       </c>
       <c r="H9">
-        <v>99.061832</v>
+        <v>333.944756</v>
       </c>
       <c r="I9">
-        <v>0.1443360841185049</v>
+        <v>0.4723739808466805</v>
       </c>
       <c r="J9">
-        <v>0.144336084118505</v>
+        <v>0.4723739808466804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.781543666666667</v>
+        <v>15.05566733333333</v>
       </c>
       <c r="N9">
-        <v>5.344631000000001</v>
+        <v>45.167002</v>
       </c>
       <c r="O9">
-        <v>0.1066071303691566</v>
+        <v>0.8990739699754254</v>
       </c>
       <c r="P9">
-        <v>0.1066071303691566</v>
+        <v>0.8990739699754254</v>
       </c>
       <c r="Q9">
-        <v>58.82765980266578</v>
+        <v>1675.92038468239</v>
       </c>
       <c r="R9">
-        <v>529.4489382239921</v>
+        <v>15083.28346214151</v>
       </c>
       <c r="S9">
-        <v>0.01538725573659501</v>
+        <v>0.4246991502729206</v>
       </c>
       <c r="T9">
-        <v>0.01538725573659501</v>
+        <v>0.4246991502729205</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.02061066666666</v>
+        <v>40.34671033333333</v>
       </c>
       <c r="H10">
-        <v>99.061832</v>
+        <v>121.040131</v>
       </c>
       <c r="I10">
-        <v>0.1443360841185049</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="J10">
-        <v>0.144336084118505</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>14.24499333333333</v>
+        <v>0.1713566666666667</v>
       </c>
       <c r="N10">
-        <v>42.73498</v>
+        <v>0.51407</v>
       </c>
       <c r="O10">
-        <v>0.8524168617409322</v>
+        <v>0.01023284555714517</v>
       </c>
       <c r="P10">
-        <v>0.8524168617409322</v>
+        <v>0.01023284555714517</v>
       </c>
       <c r="Q10">
-        <v>470.3783788092622</v>
+        <v>6.913677793685556</v>
       </c>
       <c r="R10">
-        <v>4233.405409283359</v>
+        <v>62.22310014317001</v>
       </c>
       <c r="S10">
-        <v>0.1230345118602712</v>
+        <v>0.001752012274017105</v>
       </c>
       <c r="T10">
-        <v>0.1230345118602712</v>
+        <v>0.001752012274017105</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40.34450033333333</v>
+        <v>40.34671033333333</v>
       </c>
       <c r="H11">
-        <v>121.033501</v>
+        <v>121.040131</v>
       </c>
       <c r="I11">
-        <v>0.1763494701116889</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="J11">
-        <v>0.1763494701116889</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6847623333333331</v>
+        <v>0.6847623333333334</v>
       </c>
       <c r="N11">
         <v>2.054287</v>
       </c>
       <c r="O11">
-        <v>0.04097600788991113</v>
+        <v>0.04089171046949069</v>
       </c>
       <c r="P11">
-        <v>0.04097600788991113</v>
+        <v>0.04089171046949069</v>
       </c>
       <c r="Q11">
-        <v>27.62639418542077</v>
+        <v>27.62790751017745</v>
       </c>
       <c r="R11">
-        <v>248.6375476687869</v>
+        <v>248.651167591597</v>
       </c>
       <c r="S11">
-        <v>0.007226097278678212</v>
+        <v>0.007001256712809106</v>
       </c>
       <c r="T11">
-        <v>0.007226097278678212</v>
+        <v>0.007001256712809104</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>40.34450033333333</v>
+        <v>40.34671033333333</v>
       </c>
       <c r="H12">
-        <v>121.033501</v>
+        <v>121.040131</v>
       </c>
       <c r="I12">
-        <v>0.1763494701116889</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="J12">
-        <v>0.1763494701116889</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.781543666666667</v>
+        <v>0.8339630000000001</v>
       </c>
       <c r="N12">
-        <v>5.344631000000001</v>
+        <v>2.501889</v>
       </c>
       <c r="O12">
-        <v>0.1066071303691566</v>
+        <v>0.04980147399793875</v>
       </c>
       <c r="P12">
-        <v>0.1066071303691566</v>
+        <v>0.04980147399793875</v>
       </c>
       <c r="Q12">
-        <v>71.87548905368122</v>
+        <v>33.64766358971767</v>
       </c>
       <c r="R12">
-        <v>646.879401483131</v>
+        <v>302.828972307459</v>
       </c>
       <c r="S12">
-        <v>0.01880011095072852</v>
+        <v>0.008526738063353983</v>
       </c>
       <c r="T12">
-        <v>0.01880011095072851</v>
+        <v>0.008526738063353983</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>40.34450033333333</v>
+        <v>40.34671033333333</v>
       </c>
       <c r="H13">
-        <v>121.033501</v>
+        <v>121.040131</v>
       </c>
       <c r="I13">
-        <v>0.1763494701116889</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="J13">
-        <v>0.1763494701116889</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,276 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.24499333333333</v>
+        <v>15.05566733333333</v>
       </c>
       <c r="N13">
-        <v>42.73498</v>
+        <v>45.167002</v>
       </c>
       <c r="O13">
-        <v>0.8524168617409322</v>
+        <v>0.8990739699754254</v>
       </c>
       <c r="P13">
-        <v>0.8524168617409322</v>
+        <v>0.8990739699754254</v>
       </c>
       <c r="Q13">
-        <v>574.7071382849978</v>
+        <v>607.4466487730291</v>
       </c>
       <c r="R13">
-        <v>5172.364244564979</v>
+        <v>5467.019838957262</v>
       </c>
       <c r="S13">
-        <v>0.1503232618822822</v>
+        <v>0.1539345651069993</v>
       </c>
       <c r="T13">
-        <v>0.1503232618822822</v>
+        <v>0.1539345651069993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>34.91373066666667</v>
+      </c>
+      <c r="H14">
+        <v>104.741192</v>
+      </c>
+      <c r="I14">
+        <v>0.1481592776491046</v>
+      </c>
+      <c r="J14">
+        <v>0.1481592776491046</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1713566666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.51407</v>
+      </c>
+      <c r="O14">
+        <v>0.01023284555714517</v>
+      </c>
+      <c r="P14">
+        <v>0.01023284555714517</v>
+      </c>
+      <c r="Q14">
+        <v>5.982700507937779</v>
+      </c>
+      <c r="R14">
+        <v>53.84430457144001</v>
+      </c>
+      <c r="S14">
+        <v>0.001516091006041478</v>
+      </c>
+      <c r="T14">
+        <v>0.001516091006041477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>34.91373066666667</v>
+      </c>
+      <c r="H15">
+        <v>104.741192</v>
+      </c>
+      <c r="I15">
+        <v>0.1481592776491046</v>
+      </c>
+      <c r="J15">
+        <v>0.1481592776491046</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6847623333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.054287</v>
+      </c>
+      <c r="O15">
+        <v>0.04089171046949069</v>
+      </c>
+      <c r="P15">
+        <v>0.04089171046949069</v>
+      </c>
+      <c r="Q15">
+        <v>23.90760767667823</v>
+      </c>
+      <c r="R15">
+        <v>215.168469090104</v>
+      </c>
+      <c r="S15">
+        <v>0.006058486284996068</v>
+      </c>
+      <c r="T15">
+        <v>0.006058486284996068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>34.91373066666667</v>
+      </c>
+      <c r="H16">
+        <v>104.741192</v>
+      </c>
+      <c r="I16">
+        <v>0.1481592776491046</v>
+      </c>
+      <c r="J16">
+        <v>0.1481592776491046</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.8339630000000001</v>
+      </c>
+      <c r="N16">
+        <v>2.501889</v>
+      </c>
+      <c r="O16">
+        <v>0.04980147399793875</v>
+      </c>
+      <c r="P16">
+        <v>0.04980147399793875</v>
+      </c>
+      <c r="Q16">
+        <v>29.11675956796534</v>
+      </c>
+      <c r="R16">
+        <v>262.0508361116881</v>
+      </c>
+      <c r="S16">
+        <v>0.007378550413395271</v>
+      </c>
+      <c r="T16">
+        <v>0.00737855041339527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>34.91373066666667</v>
+      </c>
+      <c r="H17">
+        <v>104.741192</v>
+      </c>
+      <c r="I17">
+        <v>0.1481592776491046</v>
+      </c>
+      <c r="J17">
+        <v>0.1481592776491046</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.05566733333333</v>
+      </c>
+      <c r="N17">
+        <v>45.167002</v>
+      </c>
+      <c r="O17">
+        <v>0.8990739699754254</v>
+      </c>
+      <c r="P17">
+        <v>0.8990739699754254</v>
+      </c>
+      <c r="Q17">
+        <v>525.6495142829316</v>
+      </c>
+      <c r="R17">
+        <v>4730.845628546384</v>
+      </c>
+      <c r="S17">
+        <v>0.1332061499446718</v>
+      </c>
+      <c r="T17">
+        <v>0.1332061499446718</v>
       </c>
     </row>
   </sheetData>
